--- a/172/RAW/AXON_172_paw_cyclereport_header.xlsx
+++ b/172/RAW/AXON_172_paw_cyclereport_header.xlsx
@@ -14,20 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
-  <si>
-    <t>ATTRIBUTE_NAME</t>
-  </si>
-  <si>
-    <t>DATA_TYPE</t>
-  </si>
-  <si>
-    <t>TECHNICAL_NAME</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
+  <si>
+    <t>ATTRIBUTE NAME</t>
+  </si>
+  <si>
+    <t>TECHNICAL NAME</t>
   </si>
   <si>
     <t>DEFINITION</t>
   </si>
   <si>
+    <t>DATA TYPE</t>
+  </si>
+  <si>
     <t>BUSINESS LOGIC</t>
   </si>
   <si>
@@ -145,139 +145,124 @@
     <t>UNIT</t>
   </si>
   <si>
-    <t>R_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_SRC_ID</t>
+    <t>COLUMN APPLICATION OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN APPR_COMMENT OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN APPR_TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN APPR_TIMESTAMP_UTC OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN APPR_USERFULLNAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN APPR_USERNAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN AREA OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN BATCH OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN CYCLE_ID OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN CYCLE_RESULT OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN CYCLE_RESULT_LOCAL OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN CYCLE_RESULT_TEXT OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN CYCLE_TYPE OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN DATA_TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN DATA_TIMESTAMP_UTC OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN END_TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN PARAM_SET_NAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN PROCESS_CELL OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN PRODUCT OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN R_DEL_LOAD_ID OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN R_DEL_TMSTMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN R_FCLTY_CD OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN R_INS_LOAD_ID OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN R_INS_TMSTMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN R_RCRD_STS_CD OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN R_UPD_LOAD_ID OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN R_UPD_TMSTMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN SIGN_COMMENT OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN SIGN_MEANING OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN SIGN_MEANING_LOCAL OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN SIGN_NODENAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN SIGN_USERFULLNAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN SIGN_USERNAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN SITE OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN START_TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN TIMESTAMP_UTC OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN UNIT OF TABLE PAW_CYCLEREPORT_HEADER</t>
   </si>
   <si>
     <t>STRING</t>
   </si>
   <si>
     <t>DECIMAL(1,0)</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>COLUMN APPLICATION OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN APPR_COMMENT OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN APPR_TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN APPR_TIMESTAMP_UTC OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN APPR_USERFULLNAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN APPR_USERNAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN AREA OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN BATCH OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN CYCLE_ID OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN CYCLE_RESULT OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN CYCLE_RESULT_LOCAL OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN CYCLE_RESULT_TEXT OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN CYCLE_TYPE OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN DATA_TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN DATA_TIMESTAMP_UTC OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN END_TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN PARAM_SET_NAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN PROCESS_CELL OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN PRODUCT OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN R_DEL_LOAD_ID OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN R_DEL_TMSTMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN R_FCLTY_CD OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN R_INS_LOAD_ID OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN R_INS_TMSTMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN R_RCRD_STS_CD OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN R_UPD_LOAD_ID OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN R_UPD_TMSTMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_COMMENT OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_MEANING OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_MEANING_LOCAL OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_NODENAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_USERFULLNAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_USERNAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN SITE OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN START_TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN TIMESTAMP_UTC OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN UNIT OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN R_LOAD_ID OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Raw Layer. This is a Source system identifier in CAVEAU Architecture.</t>
   </si>
 </sst>
 </file>
@@ -635,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,13 +648,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -677,13 +662,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -691,13 +676,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -705,13 +690,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -719,13 +704,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -733,13 +718,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -747,13 +732,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -761,13 +746,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -775,13 +760,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -789,13 +774,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -803,13 +788,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -817,13 +802,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -831,13 +816,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -845,13 +830,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -859,13 +844,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -873,13 +858,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -887,13 +872,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -901,13 +886,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -915,13 +900,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -929,13 +914,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -943,13 +928,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -957,13 +942,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -971,13 +956,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -985,13 +970,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -999,13 +984,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1013,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1027,13 +1012,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1041,13 +1026,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1055,13 +1040,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1069,13 +1054,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1083,13 +1068,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1097,13 +1082,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1111,13 +1096,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1125,10 +1110,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
@@ -1139,13 +1124,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1156,10 +1141,10 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
         <v>40</v>
-      </c>
-      <c r="D37" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1167,13 +1152,13 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
         <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1181,41 +1166,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
